--- a/data/trans_dic/iP30KDB2_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP30KDB2_2023-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>26,55%</t>
+          <t>48,17%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>33,32%</t>
+          <t>58,47%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>30,5%</t>
+          <t>53,78%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,83; 53,85</t>
+          <t>40,67; 56,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,14; 54,58</t>
+          <t>48,18; 68,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,2; 45,15</t>
+          <t>47,25; 61,16</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>62,85%</t>
+          <t>55,3%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>51,11%</t>
+          <t>63,15%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>57,28%</t>
+          <t>59,78%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>53,23; 71,58</t>
+          <t>47,45; 61,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>42,66; 58,95</t>
+          <t>57,17; 68,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>51,41; 64,31</t>
+          <t>55,08; 63,9</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>64,32%</t>
+          <t>55,11%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>57,71%</t>
+          <t>48,74%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>61,44%</t>
+          <t>51,97%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>58,51; 70,28</t>
+          <t>45,1; 74,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>51,3; 63,68</t>
+          <t>41,51; 56,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>57,18; 65,59</t>
+          <t>45,79; 63,08</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>49,03%</t>
+          <t>49,06%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>49,66%</t>
+          <t>53,17%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>49,34%</t>
+          <t>51,19%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>41,45; 56,9</t>
+          <t>42,77; 56,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>41,81; 57,88</t>
+          <t>46,23; 60,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>43,54; 54,94</t>
+          <t>46,73; 56,24</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>53,99%</t>
+          <t>52,42%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>50,0%</t>
+          <t>56,37%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>52,02%</t>
+          <t>54,53%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>47,37; 60,83</t>
+          <t>48,52; 59,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>43,2; 56,74</t>
+          <t>52,71; 60,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>47,3; 56,7</t>
+          <t>51,77; 58,27</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>57,3%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>51,93%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>54,75%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>54,16; 60,58</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>48,42; 55,28</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>52,12; 57,24</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
